--- a/data/trans_bre/P54_A_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,22; 8,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,75; 132,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,27 +684,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,87</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 16,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,9; 396,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-29,66</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,45; 5,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; 7,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 1,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,76; 97,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -908,6 +908,13 @@
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,34 +611,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>16,52%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>1.605351374738108</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.7781699205072308</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.051239767380095</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1652259161109693</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -637,204 +636,120 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,22; 8,29</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,08</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-46,75; 132,35</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.220320770018313</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.885262778749919</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4674522615945375</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.294920973760396</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.375353654378429</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.323534955495597</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,87</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>93,69%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 16,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,9; 396,81</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>7.869505236847098</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.324342753001494</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.9369247872685363</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-29,66</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-79,92%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.9076217726181005</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>-0.1389658320014046</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-73,45; 5,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.41348831510109</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.160077570947214</v>
+      </c>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>3.968120269155218</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +757,131 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,09%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>58,8%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-29.66223713856705</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.7991669523230039</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 7,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 1,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,71</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-45,76; 97,61</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-73.44713545782136</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.083741431800385</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.9781773114396208</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.170986715795844</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5468728679028826</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.08089250325883636</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4379858940189927</v>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.336869243977944</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.079586841765626</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.4575573586426564</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.421456519096433</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.089647444320558</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.780088549086693</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.9760508079910372</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -921,12 +890,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
